--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1 м</t>
   </si>
@@ -39,17 +39,68 @@
     <t>totalcount</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>slice</t>
+  </si>
+  <si>
+    <t>side(line)</t>
+  </si>
+  <si>
+    <t>size full</t>
+  </si>
+  <si>
+    <t>size stored</t>
+  </si>
+  <si>
+    <t>BNW</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>TNW</t>
+  </si>
+  <si>
+    <t>TSW</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>TNE</t>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ЧЕТВЕРИЧНАЯ СИСТЕМА?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +109,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,14 +140,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,24 +442,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:J51"/>
+  <dimension ref="A5:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="6" spans="1:11">
+      <c r="I6">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -409,13 +485,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8">
         <f t="shared" ref="B8:B11" si="0">B9/2</f>
         <v>3.125E-2</v>
@@ -439,14 +521,23 @@
         <v>33554432</v>
       </c>
       <c r="H8">
-        <v>896532.04125360004</v>
+        <f t="shared" ref="H8:H24" si="3">G8*G8</f>
+        <v>1125899906842624</v>
+      </c>
+      <c r="I8">
+        <f>F8*I$6/1024/1024</f>
+        <v>1.5235034168019049E+18</v>
       </c>
       <c r="J8">
-        <f>B$8*POWER(2,C$8-C8)</f>
+        <f>F8*J$6/1024/1024</f>
+        <v>8.2351536043346208E+16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K33" si="4">B$8*POWER(2,C$8-C8)</f>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
@@ -471,15 +562,23 @@
         <v>16777216</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H24" si="3">G9*G9</f>
+        <f t="shared" si="3"/>
         <v>281474976710656</v>
       </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I33" si="5">F9*I$6/1024/1024</f>
+        <v>1.9043792710023811E+17</v>
+      </c>
       <c r="J9">
-        <f t="shared" ref="J9:J33" si="4">B$8*POWER(2,C$8-C9)</f>
+        <f t="shared" ref="J9:J33" si="6">F9*J$6/1024/1024</f>
+        <v>1.0293942005418276E+16</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -488,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D33" si="5">D9*2</f>
+        <f t="shared" ref="D10:D33" si="7">D9*2</f>
         <v>4</v>
       </c>
       <c r="E10">
@@ -507,12 +606,20 @@
         <f t="shared" si="3"/>
         <v>70368744177664</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>2.3804740887529764E+16</v>
+      </c>
       <c r="J10">
+        <f t="shared" si="6"/>
+        <v>1286742750677284.5</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -521,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="E11">
@@ -540,12 +647,20 @@
         <f t="shared" si="3"/>
         <v>17592186044416</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>2975592610941220.5</v>
+      </c>
       <c r="J11">
+        <f t="shared" si="6"/>
+        <v>160842843834660.56</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="B12">
         <f>B13/2</f>
         <v>0.5</v>
@@ -554,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E12">
@@ -573,12 +688,20 @@
         <f t="shared" si="3"/>
         <v>4398046511104</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>371949076367652.56</v>
+      </c>
       <c r="J12">
+        <f t="shared" si="6"/>
+        <v>20105355479332.57</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -589,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="E13">
@@ -608,12 +731,20 @@
         <f t="shared" si="3"/>
         <v>1099511627776</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>46493634545956.57</v>
+      </c>
       <c r="J13">
+        <f t="shared" si="6"/>
+        <v>2513169434916.5713</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="B14">
         <f>B13*2</f>
         <v>2</v>
@@ -622,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="E14">
@@ -641,21 +772,29 @@
         <f t="shared" si="3"/>
         <v>274877906944</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>5811704318244.5713</v>
+      </c>
       <c r="J14">
+        <f t="shared" si="6"/>
+        <v>314146179364.57141</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="B15">
-        <f t="shared" ref="A15:B33" si="6">B14*2</f>
+        <f t="shared" ref="A15:B33" si="8">B14*2</f>
         <v>4</v>
       </c>
       <c r="C15">
         <v>18</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="E15">
@@ -674,21 +813,29 @@
         <f t="shared" si="3"/>
         <v>68719476736</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>726463039780.57141</v>
+      </c>
       <c r="J15">
+        <f t="shared" si="6"/>
+        <v>39268272420.571426</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="E16">
@@ -707,21 +854,29 @@
         <f t="shared" si="3"/>
         <v>17179869184</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>90807879972.571426</v>
+      </c>
       <c r="J16">
+        <f t="shared" si="6"/>
+        <v>4908534052.5714283</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="E17">
@@ -740,21 +895,29 @@
         <f t="shared" si="3"/>
         <v>4294967296</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>11350984996.571423</v>
+      </c>
       <c r="J17">
+        <f t="shared" si="6"/>
+        <v>613566756.5714283</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="E18">
@@ -773,21 +936,29 @@
         <f t="shared" si="3"/>
         <v>1073741824</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>1418873124.5714235</v>
+      </c>
       <c r="J18">
+        <f t="shared" si="6"/>
+        <v>76695844.571428299</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="E19">
@@ -806,21 +977,29 @@
         <f t="shared" si="3"/>
         <v>268435456</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>177359140.57142353</v>
+      </c>
       <c r="J19">
+        <f t="shared" si="6"/>
+        <v>9586980.571428299</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
       <c r="E20">
@@ -839,21 +1018,29 @@
         <f t="shared" si="3"/>
         <v>67108864</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>22169892.571423531</v>
+      </c>
       <c r="J20">
+        <f t="shared" si="6"/>
+        <v>1198372.571428299</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8192</v>
       </c>
       <c r="E21">
@@ -872,21 +1059,29 @@
         <f t="shared" si="3"/>
         <v>16777216</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>2771236.5714235306</v>
+      </c>
       <c r="J21">
+        <f t="shared" si="6"/>
+        <v>149796.57142829895</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="B22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
       <c r="E22">
@@ -905,21 +1100,29 @@
         <f t="shared" si="3"/>
         <v>4194304</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>346404.57142353058</v>
+      </c>
       <c r="J22">
+        <f t="shared" si="6"/>
+        <v>18724.57142829895</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1024</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
       <c r="E23">
@@ -938,21 +1141,29 @@
         <f t="shared" si="3"/>
         <v>1048576</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>43300.571423530579</v>
+      </c>
       <c r="J23">
+        <f t="shared" si="6"/>
+        <v>2340.5714282989502</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2048</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>65536</v>
       </c>
       <c r="E24">
@@ -971,21 +1182,29 @@
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>5412.5714235305786</v>
+      </c>
       <c r="J24">
+        <f t="shared" si="6"/>
+        <v>292.5714282989502</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>2048</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4096</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>131072</v>
       </c>
       <c r="E25">
@@ -1004,25 +1223,33 @@
         <f>G25*G25</f>
         <v>65536</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>676.57142353057861</v>
+      </c>
       <c r="J25">
+        <f t="shared" si="6"/>
+        <v>36.571428298950195</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
         <v>4096</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26">
-        <f t="shared" ref="A26:A29" si="7">A27/2</f>
+        <f t="shared" ref="A26:A29" si="9">A27/2</f>
         <v>3.125E-2</v>
       </c>
       <c r="B26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8192</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>262144</v>
       </c>
       <c r="E26">
@@ -1038,28 +1265,36 @@
         <v>128</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H33" si="8">G26*G26</f>
+        <f t="shared" ref="H26:H33" si="10">G26*G26</f>
         <v>16384</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>84.571423530578613</v>
+      </c>
       <c r="J26">
+        <f t="shared" si="6"/>
+        <v>4.5714282989501953</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
         <v>8192</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16384</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>524288</v>
       </c>
       <c r="E27">
@@ -1075,28 +1310,36 @@
         <v>64</v>
       </c>
       <c r="H27">
+        <f t="shared" si="10"/>
+        <v>4096</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>10.571423530578613</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>0.57142829895019531</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="8"/>
-        <v>4096</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <f t="shared" si="7"/>
-        <v>0.125</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1048576</v>
       </c>
       <c r="E28">
@@ -1112,28 +1355,36 @@
         <v>32</v>
       </c>
       <c r="H28">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>1.3214235305786133</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>7.1428298950195313E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2097152</v>
       </c>
       <c r="E29">
@@ -1149,15 +1400,23 @@
         <v>16</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.16517353057861328</v>
+      </c>
       <c r="J29">
+        <f t="shared" si="6"/>
+        <v>8.9282989501953125E-3</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="4"/>
         <v>65536</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30">
         <f>A31/2</f>
         <v>0.5</v>
@@ -1170,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4194304</v>
       </c>
       <c r="E30">
@@ -1186,27 +1445,35 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>2.0642280578613281E-2</v>
+      </c>
       <c r="J30">
+        <f t="shared" si="6"/>
+        <v>1.1157989501953125E-3</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="4"/>
         <v>131072</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>262144</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8388608</v>
       </c>
       <c r="E31">
@@ -1222,28 +1489,36 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>2.5758743286132813E-3</v>
+      </c>
       <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1.392364501953125E-4</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="4"/>
         <v>262144</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32">
         <f>A31*2</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>524288</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
       <c r="E32">
@@ -1259,17 +1534,25 @@
         <v>2</v>
       </c>
       <c r="H32">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>3.1757354736328125E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>1.71661376953125E-5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B33">
@@ -1280,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33554432</v>
       </c>
       <c r="E33">
@@ -1293,99 +1576,386 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>3.528594970703125E-5</v>
+      </c>
       <c r="J33">
+        <f t="shared" si="6"/>
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
         <v>1048576</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:22">
       <c r="A34">
-        <f t="shared" ref="A34:A50" si="9">A33*2</f>
+        <f t="shared" ref="A34:A50" si="11">A33*2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="O36" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" t="s">
+        <v>17</v>
+      </c>
+      <c r="V36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37">
+        <f>O$35+$M37</f>
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37:V42" si="12">P$35+$M37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ref="O38:O42" si="13">O$35+$M38</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="M39">
+        <v>-2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="M41">
+        <v>-4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="13"/>
+        <v>-4</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2048</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4096</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:22">
       <c r="A44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8192</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:22">
       <c r="A45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:22">
       <c r="A46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32768</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:22">
       <c r="A47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65536</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:22">
       <c r="A48">
         <f>A47*2</f>
         <v>131072</v>
@@ -1393,13 +1963,13 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>262144</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>524288</v>
       </c>
     </row>
